--- a/LCD/serial_lcd_cursor_positions.xlsx
+++ b/LCD/serial_lcd_cursor_positions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whits\STUFF\SCHOOL\2019-2020 PSU\ME121\ME121-Fishtank\LCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A575C78-DD18-46A8-A065-210DD21EF280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FA27ED4-B65A-4371-8BA0-A1B79A2C959E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10512" yWindow="180" windowWidth="12432" windowHeight="9420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cursor locations" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>row 1</t>
   </si>
@@ -51,18 +51,6 @@
     <t>row 3</t>
   </si>
   <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Cursor locations for Serial Controlled LCD panels</t>
-  </si>
-  <si>
-    <t>16 x 2 panel</t>
-  </si>
-  <si>
-    <t>20 x 4 panel</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -90,39 +78,9 @@
     <t xml:space="preserve">. </t>
   </si>
   <si>
-    <t>Sparkfun 16x2, 20x4 and Serial backpack</t>
-  </si>
-  <si>
     <t>Sample workspace</t>
   </si>
   <si>
-    <t>LCD.write(254);</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>LCD.write(128);</t>
-  </si>
-  <si>
-    <t>LCD.write("Read:")</t>
-  </si>
-  <si>
-    <t>Commands to print "Read:"</t>
-  </si>
-  <si>
-    <t>Commands to print "643"</t>
-  </si>
-  <si>
-    <t>sprintf(x,"%4d",buffer);</t>
-  </si>
-  <si>
-    <t>LCD.write(133);</t>
-  </si>
-  <si>
-    <t>LCD.write(buffer);</t>
-  </si>
-  <si>
     <t>Final display</t>
   </si>
   <si>
@@ -153,13 +111,13 @@
     <t>row 0</t>
   </si>
   <si>
-    <t>char buffer[10];                //  Used to store the string</t>
-  </si>
-  <si>
-    <t>int x = 643;                       //  This would be a variable, say a reading</t>
-  </si>
-  <si>
     <t>Empty Display</t>
+  </si>
+  <si>
+    <t>lcd.setCursor(column, row);</t>
+  </si>
+  <si>
+    <t>lcd.print("hello world");</t>
   </si>
 </sst>
 </file>
@@ -705,8 +663,8 @@
   </sheetPr>
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -716,630 +674,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A1" s="1"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>4</v>
-      </c>
-      <c r="G6" s="5">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>6</v>
-      </c>
-      <c r="I6" s="5">
-        <v>7</v>
-      </c>
-      <c r="J6" s="5">
-        <v>8</v>
-      </c>
-      <c r="K6" s="2">
-        <v>9</v>
-      </c>
-      <c r="L6" s="5">
-        <v>10</v>
-      </c>
-      <c r="M6" s="5">
-        <v>11</v>
-      </c>
-      <c r="N6" s="2">
-        <v>12</v>
-      </c>
-      <c r="O6" s="5">
-        <v>13</v>
-      </c>
-      <c r="P6" s="5">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>15</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <f>128+B6</f>
-        <v>128</v>
-      </c>
-      <c r="C7" s="6">
-        <f>128+C6</f>
-        <v>129</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" ref="D7:Q7" si="0">128+D6</f>
-        <v>130</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="0"/>
-        <v>136</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="O7" s="6">
-        <f t="shared" si="0"/>
-        <v>141</v>
-      </c>
-      <c r="P7" s="6">
-        <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-      <c r="Q7" s="6">
-        <f t="shared" si="0"/>
-        <v>143</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <f>128+64+B6</f>
-        <v>192</v>
-      </c>
-      <c r="C8" s="6">
-        <f>128+64+C6</f>
-        <v>193</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" ref="D8:Q8" si="1">128+64+D6</f>
-        <v>194</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>196</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>197</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="1"/>
-        <v>198</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="1"/>
-        <v>199</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="1"/>
-        <v>201</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="1"/>
-        <v>202</v>
-      </c>
-      <c r="M8" s="6">
-        <f t="shared" si="1"/>
-        <v>203</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" si="1"/>
-        <v>204</v>
-      </c>
-      <c r="O8" s="6">
-        <f t="shared" si="1"/>
-        <v>205</v>
-      </c>
-      <c r="P8" s="6">
-        <f t="shared" si="1"/>
-        <v>206</v>
-      </c>
-      <c r="Q8" s="6">
-        <f t="shared" si="1"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="10"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3</v>
-      </c>
-      <c r="F13" s="5">
-        <v>4</v>
-      </c>
-      <c r="G13" s="5">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>6</v>
-      </c>
-      <c r="I13" s="5">
-        <v>7</v>
-      </c>
-      <c r="J13" s="5">
-        <v>8</v>
-      </c>
-      <c r="K13" s="2">
-        <v>9</v>
-      </c>
-      <c r="L13" s="5">
-        <v>10</v>
-      </c>
-      <c r="M13" s="5">
-        <v>11</v>
-      </c>
-      <c r="N13" s="2">
-        <v>12</v>
-      </c>
-      <c r="O13" s="5">
-        <v>13</v>
-      </c>
-      <c r="P13" s="5">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>15</v>
-      </c>
-      <c r="R13" s="5">
-        <v>16</v>
-      </c>
-      <c r="S13" s="5">
-        <v>17</v>
-      </c>
-      <c r="T13" s="2">
-        <v>18</v>
-      </c>
-      <c r="U13" s="5">
-        <v>19</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14">
-        <f>128+B13</f>
-        <v>128</v>
-      </c>
-      <c r="C14" s="6">
-        <f>128+C13</f>
-        <v>129</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" ref="D14:U14" si="2">128+D13</f>
-        <v>130</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="2"/>
-        <v>133</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="2"/>
-        <v>135</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" si="2"/>
-        <v>137</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="M14" s="6">
-        <f t="shared" si="2"/>
-        <v>139</v>
-      </c>
-      <c r="N14" s="6">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="O14" s="6">
-        <f t="shared" si="2"/>
-        <v>141</v>
-      </c>
-      <c r="P14" s="6">
-        <f t="shared" si="2"/>
-        <v>142</v>
-      </c>
-      <c r="Q14" s="6">
-        <f t="shared" si="2"/>
-        <v>143</v>
-      </c>
-      <c r="R14" s="6">
-        <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="S14" s="6">
-        <f t="shared" si="2"/>
-        <v>145</v>
-      </c>
-      <c r="T14" s="6">
-        <f t="shared" si="2"/>
-        <v>146</v>
-      </c>
-      <c r="U14" s="6">
-        <f t="shared" si="2"/>
-        <v>147</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="8">
-        <f>128+64+B13</f>
-        <v>192</v>
-      </c>
-      <c r="C15" s="9">
-        <f>128+64+C13</f>
-        <v>193</v>
-      </c>
-      <c r="D15" s="9">
-        <f t="shared" ref="D15:U15" si="3">128+64+D13</f>
-        <v>194</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="3"/>
-        <v>195</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="3"/>
-        <v>196</v>
-      </c>
-      <c r="G15" s="9">
-        <f t="shared" si="3"/>
-        <v>197</v>
-      </c>
-      <c r="H15" s="9">
-        <f t="shared" si="3"/>
-        <v>198</v>
-      </c>
-      <c r="I15" s="9">
-        <f t="shared" si="3"/>
-        <v>199</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="K15" s="9">
-        <f t="shared" si="3"/>
-        <v>201</v>
-      </c>
-      <c r="L15" s="9">
-        <f t="shared" si="3"/>
-        <v>202</v>
-      </c>
-      <c r="M15" s="9">
-        <f t="shared" si="3"/>
-        <v>203</v>
-      </c>
-      <c r="N15" s="9">
-        <f t="shared" si="3"/>
-        <v>204</v>
-      </c>
-      <c r="O15" s="9">
-        <f t="shared" si="3"/>
-        <v>205</v>
-      </c>
-      <c r="P15" s="9">
-        <f t="shared" si="3"/>
-        <v>206</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="shared" si="3"/>
-        <v>207</v>
-      </c>
-      <c r="R15" s="9">
-        <f t="shared" si="3"/>
-        <v>208</v>
-      </c>
-      <c r="S15" s="9">
-        <f t="shared" si="3"/>
-        <v>209</v>
-      </c>
-      <c r="T15" s="9">
-        <f t="shared" si="3"/>
-        <v>210</v>
-      </c>
-      <c r="U15" s="9">
-        <f t="shared" si="3"/>
-        <v>211</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="8">
-        <f>128 + 20 + B13</f>
-        <v>148</v>
-      </c>
-      <c r="C16" s="9">
-        <f>128 + 20 + C13</f>
-        <v>149</v>
-      </c>
-      <c r="D16" s="9">
-        <f t="shared" ref="D16:U16" si="4">128 + 20 + D13</f>
-        <v>150</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="4"/>
-        <v>151</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" si="4"/>
-        <v>152</v>
-      </c>
-      <c r="G16" s="9">
-        <f t="shared" si="4"/>
-        <v>153</v>
-      </c>
-      <c r="H16" s="9">
-        <f t="shared" si="4"/>
-        <v>154</v>
-      </c>
-      <c r="I16" s="9">
-        <f t="shared" si="4"/>
-        <v>155</v>
-      </c>
-      <c r="J16" s="9">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-      <c r="K16" s="9">
-        <f t="shared" si="4"/>
-        <v>157</v>
-      </c>
-      <c r="L16" s="9">
-        <f t="shared" si="4"/>
-        <v>158</v>
-      </c>
-      <c r="M16" s="9">
-        <f t="shared" si="4"/>
-        <v>159</v>
-      </c>
-      <c r="N16" s="9">
-        <f t="shared" si="4"/>
-        <v>160</v>
-      </c>
-      <c r="O16" s="9">
-        <f t="shared" si="4"/>
-        <v>161</v>
-      </c>
-      <c r="P16" s="9">
-        <f t="shared" si="4"/>
-        <v>162</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="shared" si="4"/>
-        <v>163</v>
-      </c>
-      <c r="R16" s="9">
-        <f t="shared" si="4"/>
-        <v>164</v>
-      </c>
-      <c r="S16" s="9">
-        <f t="shared" si="4"/>
-        <v>165</v>
-      </c>
-      <c r="T16" s="9">
-        <f t="shared" si="4"/>
-        <v>166</v>
-      </c>
-      <c r="U16" s="9">
-        <f t="shared" si="4"/>
-        <v>167</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="8">
-        <f>128 + 84 + B13</f>
-        <v>212</v>
-      </c>
-      <c r="C17" s="9">
-        <f>128 + 84 + C13</f>
-        <v>213</v>
-      </c>
-      <c r="D17" s="9">
-        <f t="shared" ref="D17:U17" si="5">128 + 84 + D13</f>
-        <v>214</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="5"/>
-        <v>215</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" si="5"/>
-        <v>216</v>
-      </c>
-      <c r="G17" s="9">
-        <f t="shared" si="5"/>
-        <v>217</v>
-      </c>
-      <c r="H17" s="9">
-        <f t="shared" si="5"/>
-        <v>218</v>
-      </c>
-      <c r="I17" s="9">
-        <f t="shared" si="5"/>
-        <v>219</v>
-      </c>
-      <c r="J17" s="9">
-        <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-      <c r="K17" s="9">
-        <f t="shared" si="5"/>
-        <v>221</v>
-      </c>
-      <c r="L17" s="9">
-        <f t="shared" si="5"/>
-        <v>222</v>
-      </c>
-      <c r="M17" s="9">
-        <f t="shared" si="5"/>
-        <v>223</v>
-      </c>
-      <c r="N17" s="9">
-        <f t="shared" si="5"/>
-        <v>224</v>
-      </c>
-      <c r="O17" s="9">
-        <f t="shared" si="5"/>
-        <v>225</v>
-      </c>
-      <c r="P17" s="9">
-        <f t="shared" si="5"/>
-        <v>226</v>
-      </c>
-      <c r="Q17" s="9">
-        <f t="shared" si="5"/>
-        <v>227</v>
-      </c>
-      <c r="R17" s="9">
-        <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="S17" s="9">
-        <f t="shared" si="5"/>
-        <v>229</v>
-      </c>
-      <c r="T17" s="9">
-        <f t="shared" si="5"/>
-        <v>230</v>
-      </c>
-      <c r="U17" s="9">
-        <f t="shared" si="5"/>
-        <v>231</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -1454,24 +962,24 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="G28" s="11">
         <v>6</v>
@@ -1497,19 +1005,19 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G29" s="11">
         <v>1</v>
@@ -1518,7 +1026,7 @@
         <v>7</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J29" s="11">
         <v>2</v>
@@ -1581,44 +1089,6 @@
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>24</v>
@@ -1626,22 +1096,12 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
@@ -1713,41 +1173,41 @@
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="U50" s="11"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -1771,10 +1231,10 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
@@ -1797,10 +1257,10 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
@@ -1809,10 +1269,10 @@
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L53" s="23"/>
       <c r="M53" s="23"/>
@@ -1820,10 +1280,10 @@
       <c r="O53" s="23"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="S53" s="23"/>
       <c r="T53" s="23"/>
@@ -1894,7 +1354,7 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B56">
         <f>128+B55</f>
@@ -1905,75 +1365,75 @@
         <v>129</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" ref="D56:U56" si="6">128+D55</f>
+        <f t="shared" ref="D56:U56" si="0">128+D55</f>
         <v>130</v>
       </c>
       <c r="E56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>131</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="H56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>134</v>
       </c>
       <c r="I56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="J56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>136</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>137</v>
       </c>
       <c r="L56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
       <c r="M56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>139</v>
       </c>
       <c r="N56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="O56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>141</v>
       </c>
       <c r="P56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>142</v>
       </c>
       <c r="Q56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>143</v>
       </c>
       <c r="R56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="S56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
       <c r="T56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>146</v>
       </c>
       <c r="U56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
@@ -1990,75 +1450,75 @@
         <v>193</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" ref="D57:U57" si="7">128+64+D55</f>
+        <f t="shared" ref="D57:U57" si="1">128+64+D55</f>
         <v>194</v>
       </c>
       <c r="E57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
       <c r="F57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>196</v>
       </c>
       <c r="G57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>197</v>
       </c>
       <c r="H57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>198</v>
       </c>
       <c r="I57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>199</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>201</v>
       </c>
       <c r="L57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>202</v>
       </c>
       <c r="M57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>203</v>
       </c>
       <c r="N57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>204</v>
       </c>
       <c r="O57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>205</v>
       </c>
       <c r="P57" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>206</v>
       </c>
       <c r="Q57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>207</v>
       </c>
       <c r="R57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>208</v>
       </c>
       <c r="S57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>209</v>
       </c>
       <c r="T57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="U57" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>211</v>
       </c>
     </row>
@@ -2075,75 +1535,75 @@
         <v>149</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" ref="D58:U58" si="8">128 + 20 + D55</f>
+        <f t="shared" ref="D58:U58" si="2">128 + 20 + D55</f>
         <v>150</v>
       </c>
       <c r="E58" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="F58" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="G58" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="H58" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="I58" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="K58" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="L58" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="M58" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="N58" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="O58" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="P58" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="Q58" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="R58" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="S58" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="T58" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="U58" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
     </row>
@@ -2160,75 +1620,75 @@
         <v>213</v>
       </c>
       <c r="D59" s="24">
-        <f t="shared" ref="D59:U59" si="9">128 + 84 + D55</f>
+        <f t="shared" ref="D59:U59" si="3">128 + 84 + D55</f>
         <v>214</v>
       </c>
       <c r="E59" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="F59" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="G59" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="I59" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K59" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="L59" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="M59" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>223</v>
       </c>
       <c r="N59" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="O59" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="P59" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="Q59" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="R59" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="S59" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="T59" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="U59" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
     </row>
@@ -2254,7 +1714,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -2329,35 +1789,35 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="U3" s="15"/>
     </row>
@@ -2366,10 +1826,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
@@ -2395,10 +1855,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="19"/>
@@ -2424,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -2436,10 +1896,10 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
@@ -2447,10 +1907,10 @@
       <c r="O6" s="18"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="15" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>

--- a/LCD/serial_lcd_cursor_positions.xlsx
+++ b/LCD/serial_lcd_cursor_positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whits\STUFF\SCHOOL\2019-2020 PSU\ME121\ME121-Fishtank\LCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FA27ED4-B65A-4371-8BA0-A1B79A2C959E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C398868-4137-4767-84CA-C5028B09DA17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10512" yWindow="180" windowWidth="12432" windowHeight="9420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,10 +661,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1691,6 +1691,169 @@
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="12">
+        <v>0</v>
+      </c>
+      <c r="C64" s="12">
+        <v>1</v>
+      </c>
+      <c r="D64" s="12">
+        <v>2</v>
+      </c>
+      <c r="E64" s="12">
+        <v>3</v>
+      </c>
+      <c r="F64" s="12">
+        <v>4</v>
+      </c>
+      <c r="G64" s="12">
+        <v>5</v>
+      </c>
+      <c r="H64" s="12">
+        <v>6</v>
+      </c>
+      <c r="I64" s="12">
+        <v>7</v>
+      </c>
+      <c r="J64" s="12">
+        <v>8</v>
+      </c>
+      <c r="K64" s="12">
+        <v>9</v>
+      </c>
+      <c r="L64" s="12">
+        <v>10</v>
+      </c>
+      <c r="M64" s="12">
+        <v>11</v>
+      </c>
+      <c r="N64" s="12">
+        <v>12</v>
+      </c>
+      <c r="O64" s="12">
+        <v>13</v>
+      </c>
+      <c r="P64" s="12">
+        <v>14</v>
+      </c>
+      <c r="Q64" s="12">
+        <v>15</v>
+      </c>
+      <c r="R64" s="12">
+        <v>16</v>
+      </c>
+      <c r="S64" s="12">
+        <v>17</v>
+      </c>
+      <c r="T64" s="12">
+        <v>18</v>
+      </c>
+      <c r="U64" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="23"/>
+      <c r="T68" s="23"/>
+      <c r="U68" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
